--- a/Emissão/Layouts/LAYOUT 4.0 CTe.xlsx
+++ b/Emissão/Layouts/LAYOUT 4.0 CTe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="1579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5352" uniqueCount="1580">
   <si>
     <t xml:space="preserve">LAYOUT 4.0</t>
   </si>
@@ -4791,79 +4791,82 @@
     <t xml:space="preserve">Link para download do PDF do documento</t>
   </si>
   <si>
+    <t xml:space="preserve">V (999)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocDhAut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data e Hora de autorização do documento com fuso horário</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DateTime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formato AAAA-MM-DDThh:mm:ss-03:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocDigestValue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digest Value do documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uso exclusivo do InvoiCy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocXMLBase64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquivo XML do documento no formato Base64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocXMLDownload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Link para download do arquivo XML do documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DocImpressora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizado para impressão automática dos documentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V (200)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilizado apenas pelas empresas que integram via InvoiCy Conector.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Situacao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo de descrição do retorno da SEFAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SitCodigo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Código da situação do documento na SEFAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N (8)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aba02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SitDescricao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Descrição da situação do documento na SEFAZ</t>
+  </si>
+  <si>
     <t xml:space="preserve">V (1000)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocDhAut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Data e Hora de autorização do documento com fuso horário</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DateTime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Formato AAAA-MM-DDThh:mm:ss-03:00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocDigestValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digest Value do documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uso exclusivo do InvoiCy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocXMLBase64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquivo XML do documento no formato Base64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocXMLDownload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Link para download do arquivo XML do documento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DocImpressora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizado para impressão automática dos documentos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V (200)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilizado apenas pelas empresas que integram via InvoiCy Conector.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Situacao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grupo de descrição do retorno da SEFAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aba01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SitCodigo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Código da situação do documento na SEFAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N (8)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aba02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SitDescricao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Descrição da situação do documento na SEFAZ</t>
   </si>
   <si>
     <t xml:space="preserve"> CaminhoArquivos</t>
@@ -5506,8 +5509,8 @@
   </sheetPr>
   <dimension ref="A1:AE1002"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="59:59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C59" activeCellId="0" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50319,7 +50322,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="1" sqref="59:59 D20"/>
+      <selection pane="topLeft" activeCell="G18" activeCellId="0" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -50759,7 +50762,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="14" t="n">
         <f aca="false">A16+1</f>
         <v>10</v>
@@ -51096,7 +51099,7 @@
         <v>196</v>
       </c>
       <c r="G26" s="75" t="s">
-        <v>1543</v>
+        <v>1568</v>
       </c>
       <c r="H26" s="17" t="s">
         <v>18</v>
@@ -51118,10 +51121,10 @@
         <v>234</v>
       </c>
       <c r="C27" s="78" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="D27" s="79" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>16</v>
@@ -51139,7 +51142,7 @@
         <v>18</v>
       </c>
       <c r="J27" s="79" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="K27" s="25" t="s">
         <v>21</v>
@@ -51151,13 +51154,13 @@
         <v>21</v>
       </c>
       <c r="B28" s="77" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="D28" s="79" t="s">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>25</v>
@@ -51166,7 +51169,7 @@
         <v>234</v>
       </c>
       <c r="G28" s="80" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H28" s="80" t="s">
         <v>18</v>
@@ -51175,7 +51178,7 @@
         <v>18</v>
       </c>
       <c r="J28" s="79" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="K28" s="77" t="s">
         <v>21</v>
@@ -51187,13 +51190,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>25</v>
@@ -51202,7 +51205,7 @@
         <v>234</v>
       </c>
       <c r="G29" s="80" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
       <c r="H29" s="80" t="s">
         <v>18</v>
@@ -51211,7 +51214,7 @@
         <v>18</v>
       </c>
       <c r="J29" s="79" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="K29" s="77" t="s">
         <v>21</v>
